--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kobfire-my.sharepoint.com/personal/dcoughlin_kobfire_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B6D7A8-2266-4AFB-A249-FC4FA31C68BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{60B6D7A8-2266-4AFB-A249-FC4FA31C68BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24BEC957-648C-40AD-AF7F-527ED2528CD8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{DAC242E4-52C3-4D90-8085-EE16F3248193}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Valid Login By Tech</t>
   </si>
@@ -182,6 +182,66 @@
   </si>
   <si>
     <t>Ticket should be assigned to tech</t>
+  </si>
+  <si>
+    <t>Correct username/password</t>
+  </si>
+  <si>
+    <t>Missing or incorrect password</t>
+  </si>
+  <si>
+    <t>All fields entered with information</t>
+  </si>
+  <si>
+    <t>Missing information on fields</t>
+  </si>
+  <si>
+    <t>Status filter set to one of two statuses</t>
+  </si>
+  <si>
+    <t>Assigned filter set to one of two statuses</t>
+  </si>
+  <si>
+    <t>Assigned filter set to one of three statuses</t>
+  </si>
+  <si>
+    <t>Button clicked for My tickets</t>
+  </si>
+  <si>
+    <t>Button clicked for All tickets</t>
+  </si>
+  <si>
+    <t>Tech logged in</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t>Search input filled out</t>
+  </si>
+  <si>
+    <t>Ticket is cliked on home page</t>
+  </si>
+  <si>
+    <t>Comment information filled out</t>
+  </si>
+  <si>
+    <t>Invalid/Missing inputs on Comment creation</t>
+  </si>
+  <si>
+    <t>Comment information missing fields</t>
+  </si>
+  <si>
+    <t>Comment error should be displayed</t>
+  </si>
+  <si>
+    <t>Close ticket button clicked</t>
+  </si>
+  <si>
+    <t>Re-open ticket button clicked</t>
+  </si>
+  <si>
+    <t>Assign ticket button clicked</t>
   </si>
 </sst>
 </file>
@@ -533,17 +593,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B8F1B6-7E02-4E0E-9D23-F89649BBFE6E}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.21875" customWidth="1"/>
     <col min="2" max="2" width="38.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
@@ -576,6 +636,9 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
@@ -587,6 +650,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
@@ -598,6 +664,9 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -609,6 +678,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
@@ -620,6 +692,9 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
@@ -631,6 +706,9 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
@@ -642,6 +720,9 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
@@ -653,6 +734,9 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
@@ -664,6 +748,9 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -675,6 +762,9 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
@@ -686,6 +776,9 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
@@ -697,6 +790,9 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
@@ -708,6 +804,9 @@
       <c r="B14" t="s">
         <v>31</v>
       </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
       <c r="D14" t="s">
         <v>32</v>
       </c>
@@ -719,6 +818,9 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
       <c r="D15" t="s">
         <v>34</v>
       </c>
@@ -730,6 +832,9 @@
       <c r="B16" t="s">
         <v>36</v>
       </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
       <c r="D16" t="s">
         <v>37</v>
       </c>
@@ -741,6 +846,9 @@
       <c r="B17" t="s">
         <v>39</v>
       </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
@@ -752,6 +860,9 @@
       <c r="B18" t="s">
         <v>41</v>
       </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
@@ -761,10 +872,13 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -772,10 +886,13 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -783,9 +900,26 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\School\Classes\CMSC495\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stret\Documents\UMGCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E129071-93E6-45CA-AC62-F8D719C76E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BDE7D1-1297-4837-A0C0-43531CF2037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{DAC242E4-52C3-4D90-8085-EE16F3248193}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DAC242E4-52C3-4D90-8085-EE16F3248193}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Valid Login By Tech</t>
   </si>
@@ -243,6 +242,18 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>User able to submit ticket</t>
+  </si>
+  <si>
+    <t>Tech able to submit ticket</t>
+  </si>
+  <si>
+    <t>Tickets were created</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -597,20 +608,20 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.234375" customWidth="1"/>
-    <col min="2" max="2" width="38.76171875" customWidth="1"/>
-    <col min="3" max="3" width="38.3515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.52734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.9375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.64453125" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -630,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -644,7 +655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -658,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -672,7 +683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -686,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -699,8 +710,14 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -713,8 +730,14 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -727,8 +750,14 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -748,7 +777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -768,7 +797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -788,7 +817,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -808,7 +837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -828,7 +857,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -848,7 +877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -868,7 +897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -888,7 +917,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -902,7 +931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -916,7 +945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -930,7 +959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -944,7 +973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -958,7 +987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>

--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stret\Documents\UMGCProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\School\.CMSC 495\.test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BDE7D1-1297-4837-A0C0-43531CF2037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8AC193-3DFD-47C9-A8ED-C340890368EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DAC242E4-52C3-4D90-8085-EE16F3248193}"/>
+    <workbookView xWindow="-32505" yWindow="1845" windowWidth="28800" windowHeight="15435" xr2:uid="{DAC242E4-52C3-4D90-8085-EE16F3248193}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>Valid Login By Tech</t>
   </si>
@@ -254,6 +254,36 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Ticket information is shown</t>
+  </si>
+  <si>
+    <t>Comment was added to ticket</t>
+  </si>
+  <si>
+    <t>No error is given and "Assigned Tech: undefined (undefined)" added to ticket info</t>
+  </si>
+  <si>
+    <t>Ticket status shows closed</t>
+  </si>
+  <si>
+    <t>Ticket status shows opened</t>
+  </si>
+  <si>
+    <t>Ticket now shows tech assgined</t>
+  </si>
+  <si>
+    <t>User logged in and directed to home page</t>
+  </si>
+  <si>
+    <t>User not logged in and error was given</t>
+  </si>
+  <si>
+    <t>Tech logged in and directed to home page</t>
+  </si>
+  <si>
+    <t>Tech not logged in and error was given</t>
   </si>
 </sst>
 </file>
@@ -608,20 +638,20 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -641,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -654,8 +684,14 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -668,8 +704,14 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -682,8 +724,14 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -696,8 +744,14 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -717,7 +771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -737,7 +791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -757,7 +811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -777,7 +831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -797,7 +851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -817,7 +871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -837,7 +891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -857,7 +911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -877,7 +931,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -897,7 +951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -917,7 +971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -930,8 +984,14 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -944,8 +1004,14 @@
       <c r="D18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -958,8 +1024,14 @@
       <c r="D19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -972,8 +1044,14 @@
       <c r="D20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -986,8 +1064,14 @@
       <c r="D21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -999,6 +1083,12 @@
       </c>
       <c r="D22" t="s">
         <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
